--- a/Code/vehicles.xlsx
+++ b/Code/vehicles.xlsx
@@ -4,19 +4,79 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="90" windowWidth="6660" windowHeight="5850"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="vehicle_set" sheetId="4" r:id="rId2"/>
+    <sheet name="old vehicles" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$F$27</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">vehicle_set!$B$4</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$F$27</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$J$29</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">vehicle_set!$B$9</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">1.5</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>location</t>
   </si>
@@ -36,9 +96,6 @@
     <t>tst-front</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
     <t>dump-rear</t>
   </si>
   <si>
@@ -91,14 +148,161 @@
   </si>
   <si>
     <t>I76 Truck</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Vehicle 1</t>
+  </si>
+  <si>
+    <t>Vehicle 2</t>
+  </si>
+  <si>
+    <t>Vehicle 3</t>
+  </si>
+  <si>
+    <t>Vehicle 4</t>
+  </si>
+  <si>
+    <t>Vehicle 5</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Truck Mass</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Suspension Stiffness</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>Suspension Viscosity</t>
+  </si>
+  <si>
+    <t>N.s/m</t>
+  </si>
+  <si>
+    <t>Axle/Wheel Mass</t>
+  </si>
+  <si>
+    <t>Wheel Stiffness</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nat. Freq.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Vehicle 6</t>
+  </si>
+  <si>
+    <t>Vehicle 7</t>
+  </si>
+  <si>
+    <t>% damping</t>
+  </si>
+  <si>
+    <t>weight (kip)</t>
+  </si>
+  <si>
+    <t>damped nat. freq</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Slinch</t>
+  </si>
+  <si>
+    <t>lb/in</t>
+  </si>
+  <si>
+    <t>lb.s/in</t>
+  </si>
+  <si>
+    <t>damp</t>
+  </si>
+  <si>
+    <t>accel resonant freq</t>
+  </si>
+  <si>
+    <t>Tire Damping</t>
+  </si>
+  <si>
+    <t>Tire Stiffness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,10 +318,82 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -126,8 +402,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +745,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -450,28 +767,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -505,8 +822,12 @@
       <c r="K2">
         <v>1821.0058144239415</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <f>H2*2*E2/1000/386*SQRT(F2*386/E2)</f>
+        <v>9.105029072119709E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -514,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -541,7 +862,7 @@
         <v>1821.0058144239415</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -549,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>28</v>
@@ -565,7 +886,7 @@
         <v>203.59463942371502</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>$N$7</f>
         <v>0.5</v>
       </c>
       <c r="I4">
@@ -576,7 +897,7 @@
         <v>407.18927884743005</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -584,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -611,7 +932,7 @@
         <v>1994.8119238161185</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -619,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -646,10 +967,10 @@
         <v>1994.8119238161185</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -657,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>44</v>
@@ -687,7 +1008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -695,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -722,7 +1043,7 @@
         <v>2076.2660785688199</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -730,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>22</v>
@@ -757,7 +1078,7 @@
         <v>2076.2660785688199</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -765,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>36</v>
@@ -792,7 +1113,7 @@
         <v>427.06371853520778</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -827,7 +1148,7 @@
         <v>1453.9565458794495</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -862,7 +1183,7 @@
         <v>1453.9565458794495</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -898,7 +1219,7 @@
         <v>839.44220315351856</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -933,7 +1254,7 @@
         <v>839.44220315351856</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -968,7 +1289,7 @@
         <v>523.04409903341684</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -976,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1002,7 +1323,7 @@
         <v>1763.1812981527</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1010,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1036,7 +1357,7 @@
         <v>1763.1812981527</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1044,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1070,7 +1391,7 @@
         <v>1577.0372957303048</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1078,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1105,7 +1426,7 @@
         <v>55.756688299749662</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1113,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1140,7 +1461,7 @@
         <v>55.756688299749662</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1148,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1175,7 +1496,7 @@
         <v>91.050290721197086</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1183,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1210,7 +1531,7 @@
         <v>91.050290721197086</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1218,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1245,7 +1566,7 @@
         <v>147.51833116968234</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1253,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>14</v>
@@ -1280,7 +1601,7 @@
         <v>147.51833116968234</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1288,54 +1609,1256 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <f>0.95*48</f>
-        <v>45.599999999999994</v>
-      </c>
-      <c r="F27">
-        <v>45</v>
-      </c>
-      <c r="G27">
-        <f>H27*(2*SQRT(F27*E27/386))*1000</f>
-        <v>461.13174586730861</v>
+        <v>46</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42.342199999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <f>H27*(2*E27*1000/386*SQRT(F27*386/E27/1000))</f>
+        <v>21.310479798042977</v>
       </c>
       <c r="H27">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="3">SQRT(F27*386/E27)/(2*PI())</f>
-        <v>3.1062586791394575</v>
+        <v>3.0000022312491246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1">
+        <f>H27*2*E27/1000/386*SQRT(F27*386/E27)</f>
+        <v>6.7389654192820869E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9.5</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <f>H28*(2*SQRT(F28*E28/386))*1000</f>
+        <v>109.81614404188477</v>
+      </c>
+      <c r="H28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28" si="4">SQRT(F28*386/E28)/(2*PI())</f>
+        <v>5.0724991819888823</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>J28-I27</f>
+        <v>2.9999977687508754</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9072</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3</f>
+        <v>20865</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3</f>
+        <v>20865</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4265000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1580000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>15500000</v>
+      </c>
+      <c r="F4" s="17">
+        <v>50600000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>205000000</v>
+      </c>
+      <c r="H4" s="17">
+        <v>15500000</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>60000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41760</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16760</v>
+      </c>
+      <c r="E5" s="5">
+        <v>79600</v>
+      </c>
+      <c r="F5" s="5">
+        <v>143850</v>
+      </c>
+      <c r="G5" s="5">
+        <v>289500</v>
+      </c>
+      <c r="H5" s="5">
+        <v>170600</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>907</v>
+      </c>
+      <c r="D6" s="7">
+        <v>907</v>
+      </c>
+      <c r="E6" s="7">
+        <v>907</v>
+      </c>
+      <c r="F6" s="7">
+        <v>907</v>
+      </c>
+      <c r="G6" s="7">
+        <v>907</v>
+      </c>
+      <c r="H6" s="7">
+        <v>907</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7000000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="E7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="F7" s="7">
+        <v>70050700</v>
+      </c>
+      <c r="G7" s="7">
+        <v>70050700</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8000</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8">
+        <f>SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
+        <v>1.5045126646084175</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SQRT((1/C4+1/C7)^(-1)/C3)/(2*PI())</f>
+        <v>1.9923306144833355</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SQRT((1/D4+1/D7)^(-1)/D3)/(2*PI())</f>
+        <v>1.9911015741969345</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SQRT((1/E4+1/E7)^(-1)/E3)/(2*PI())</f>
+        <v>2.9889080288510868</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SQRT((1/F4+1/F7)^(-1)/F3)/(2*PI())</f>
+        <v>5.9721060657348826</v>
+      </c>
+      <c r="G9" s="8">
+        <f>SQRT((1/G4+1/G7)^(-1)/G3)/(2*PI())</f>
+        <v>7.9613685723041741</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SQRT((1/H4+1/H7)^(-1)/H3)/(2*PI())</f>
+        <v>2.9889080288510868</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B5/(2*(B3)*(B9)*2*PI())</f>
+        <v>0.15867757065373617</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:H10" si="0">C5/(2*(C3)*(C9)*2*PI())</f>
+        <v>7.9941230425455825E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3835920410799546E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10157159282432794</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>9.1865850661999385E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13868598803957952</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.21768987105314505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11">
+        <f>B9*SQRT(1-B10^2)</f>
+        <v>1.4854511746160848</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" ref="C11:H11" si="1">C9*SQRT(1-C10^2)</f>
+        <v>1.9859543167299338</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9856666694703475</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9734500904736274</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>5.9468523713176049</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>7.8844331374206265</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9172280115708564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11">
+        <f>B9/SQRT(1-2*B10^2)</f>
+        <v>1.5438876560527968</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12:H12" si="2">C9/SQRT(1-2*C10^2)</f>
+        <v>2.0051861672996236</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0020461306856441</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>3.0202295085029047</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>6.0231537966032329</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>8.1190603600185316</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="2"/>
+        <v>3.1414846639701053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
+        <f>B3*0.00571015</f>
+        <v>114.20299999999999</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D3*0.00571015</f>
+        <v>51.802480799999998</v>
+      </c>
+      <c r="E14" s="11">
+        <f>E3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="F14" s="11">
+        <f>F3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="G14" s="11">
+        <f>G3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="H14" s="11">
+        <f>H3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="18">
+        <f>B4*0.00571015</f>
+        <v>13704.359999999999</v>
+      </c>
+      <c r="C15" s="18">
+        <f>C4*0.00571015</f>
+        <v>24353.78975</v>
+      </c>
+      <c r="D15" s="18">
+        <f>D4*0.00571015</f>
+        <v>9022.0370000000003</v>
+      </c>
+      <c r="E15" s="18">
+        <f>E4*0.00571015</f>
+        <v>88507.324999999997</v>
+      </c>
+      <c r="F15" s="18">
+        <f>F4*0.00571015</f>
+        <v>288933.58999999997</v>
+      </c>
+      <c r="G15" s="18">
+        <f>G4*0.00571015</f>
+        <v>1170580.75</v>
+      </c>
+      <c r="H15" s="18">
+        <f>H4*0.00571015</f>
+        <v>88507.324999999997</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11">
+        <f>B5*0.00571015</f>
+        <v>342.60899999999998</v>
+      </c>
+      <c r="C16" s="11">
+        <f>C5*0.00571015</f>
+        <v>238.45586399999999</v>
+      </c>
+      <c r="D16" s="11">
+        <f>D5*0.00571015</f>
+        <v>95.702113999999995</v>
+      </c>
+      <c r="E16" s="11">
+        <f>E5*0.00571015</f>
+        <v>454.52794</v>
+      </c>
+      <c r="F16" s="11">
+        <f>F5*0.00571015</f>
+        <v>821.40507749999995</v>
+      </c>
+      <c r="G16" s="11">
+        <f>G5*0.00571015</f>
+        <v>1653.0884249999999</v>
+      </c>
+      <c r="H16" s="11">
+        <f>H5*0.00571015</f>
+        <v>974.15158999999994</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15">
+        <f>B6*0.00571015</f>
+        <v>11.420299999999999</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="D17" s="15">
+        <f>D6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="E17" s="15">
+        <f>E6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="F17" s="15">
+        <f>F6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="G17" s="15">
+        <f>G6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="H17" s="15">
+        <f>H6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14">
+        <f>B7*0.00571015</f>
+        <v>39971.049999999996</v>
+      </c>
+      <c r="C18" s="14">
+        <f>C7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="D18" s="14">
+        <f>D7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="E18" s="14">
+        <f>E7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="F18" s="14">
+        <f>F7*0.00571015</f>
+        <v>400000.00460499997</v>
+      </c>
+      <c r="G18" s="14">
+        <f>G7*0.00571015</f>
+        <v>400000.00460499997</v>
+      </c>
+      <c r="H18" s="14">
+        <f>H7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13">
+        <f>SQRT((1/B15+1/B18)^(-1)/B14)/(2*PI())</f>
+        <v>1.5045126646084175</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:H19" si="3">SQRT((1/C15+1/C18)^(-1)/C14)/(2*PI())</f>
+        <v>1.9923306144833355</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="3"/>
+        <v>1.9911015741969345</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="3"/>
+        <v>2.9889080288510872</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="3"/>
+        <v>5.9721060657348826</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="3"/>
+        <v>7.9613685723041732</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="3"/>
+        <v>2.9889080288510872</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <f>B16/(2*B14*SQRT(B15/B14))</f>
+        <v>0.13693063937629155</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:H20" si="4">C16/(2*C14*SQRT(C15/C14))</f>
+        <v>6.9994156151325981E-2</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="4"/>
+        <v>6.9994506260240688E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="4"/>
+        <v>6.9985493355712067E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="4"/>
+        <v>6.9999577321035844E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="4"/>
+        <v>6.9989428509610083E-2</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="4"/>
+        <v>0.14999403475483014</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="11">
+        <f>B19/SQRT(1-2*B20^2)</f>
+        <v>1.5335413080000364</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" ref="C21:H21" si="5">C19/SQRT(1-2*C20^2)</f>
+        <v>2.0021637251503592</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="5"/>
+        <v>2.0009287179969917</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="5"/>
+        <v>3.0036560504807435</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="5"/>
+        <v>6.0015858839260723</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="5"/>
+        <v>8.000656411553809</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="5"/>
+        <v>3.0585110370694615</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9072</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3</f>
+        <v>20865</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3</f>
+        <v>20865</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1853807</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3327413</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1436041</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7415253</v>
+      </c>
+      <c r="F4" s="5">
+        <v>29661012</v>
+      </c>
+      <c r="G4" s="5">
+        <f>C4*16</f>
+        <v>53238608</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7415253</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>27537</v>
+      </c>
+      <c r="C5" s="5">
+        <v>36892</v>
+      </c>
+      <c r="D5" s="6">
+        <v>15980</v>
+      </c>
+      <c r="E5" s="5">
+        <v>55075</v>
+      </c>
+      <c r="F5" s="5">
+        <v>110150</v>
+      </c>
+      <c r="G5" s="5">
+        <v>147572</v>
+      </c>
+      <c r="H5" s="5">
+        <v>118016.813830892</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
+        <v>907</v>
+      </c>
+      <c r="C6" s="7">
+        <v>907</v>
+      </c>
+      <c r="D6" s="7">
+        <v>907</v>
+      </c>
+      <c r="E6" s="7">
+        <v>907</v>
+      </c>
+      <c r="F6" s="7">
+        <v>907</v>
+      </c>
+      <c r="G6" s="7">
+        <v>907</v>
+      </c>
+      <c r="H6" s="7">
+        <v>907</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="E7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="F7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="G7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8">
+        <f>SQRT(B4/B3)/(2*PI())</f>
+        <v>1.5001793945143735</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" ref="C8:G8" si="0">SQRT(C4/C3)/(2*PI())</f>
+        <v>2.0098529871106328</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0024055052636309</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0003638467900533</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SQRT(F4/F3)/(2*PI())</f>
+        <v>6.0007276935801066</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>8.039411948442531</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SQRT(H4/H3)/(2*PI())</f>
+        <v>3.0003638467900533</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10">
+        <f>B5/(2*B3*SQRT(B4/B3))</f>
+        <v>7.0007597759050244E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" ref="C9:H9" si="1">C5/(2*C3*SQRT(C4/C3))</f>
+        <v>7.0006707906064183E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0002224134970245E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0008750899112973E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0008750899112973E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>7.000860551822688E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15001742571754714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11">
+        <f>B8*SQRT(1-B9^2)</f>
+        <v>1.4964986416538939</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:H10" si="2">C8*SQRT(1-C9^2)</f>
+        <v>2.0049218542973608</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9974932747621412</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9930020858468391</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>5.9860041716936783</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>8.0196863465477524</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9664097874780113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <f>B3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" ref="C13:H13" si="3">C3*0.00571015</f>
+        <v>119.14227975</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="3"/>
+        <v>51.802480799999998</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="3"/>
+        <v>119.14227975</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="3"/>
+        <v>119.14227975</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="3"/>
+        <v>119.14227975</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
+        <v>119.14227975</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <f>B4*0.00571015</f>
+        <v>10585.516041049999</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" ref="C14:H14" si="4">C4*0.00571015</f>
+        <v>19000.027341950001</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="4"/>
+        <v>8200.0095161499994</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="4"/>
+        <v>42342.206917949996</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="4"/>
+        <v>169368.82767179998</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="4"/>
+        <v>304000.43747120001</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="4"/>
+        <v>42342.206917949996</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <f>B5*0.00571015</f>
+        <v>157.24040055</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:H15" si="5">C5*0.00571015</f>
+        <v>210.6588538</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="5"/>
+        <v>91.24819699999999</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="5"/>
+        <v>314.48651124999998</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="5"/>
+        <v>628.97302249999996</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="5"/>
+        <v>842.65825580000001</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="5"/>
+        <v>673.89370949646798</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <f>B6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:H16" si="6">C6*0.00571015</f>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1791060499999997</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
+        <f>B7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" ref="C17:H17" si="7">C7*0.00571015</f>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="7"/>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="7"/>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="7"/>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="7"/>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="7"/>
+        <v>80000.115124000004</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <f>SQRT(B14/B13)/(2*PI())</f>
+        <v>1.5001793945143735</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:H18" si="8">SQRT(C14/C13)/(2*PI())</f>
+        <v>2.0098529871106328</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="8"/>
+        <v>2.0024055052636309</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0003638467900524</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="8"/>
+        <v>6.0007276935801048</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="8"/>
+        <v>8.039411948442531</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0003638467900524</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <f>B15/(2*B13*SQRT(B14/B13))</f>
+        <v>7.0007597759050244E-2</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:H19" si="9">C15/(2*C13*SQRT(C14/C13))</f>
+        <v>7.0006707906064169E-2</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="9"/>
+        <v>7.0002224134970245E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="9"/>
+        <v>7.0008750899112987E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="9"/>
+        <v>7.0008750899112987E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="9"/>
+        <v>7.0008605518226866E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="9"/>
+        <v>0.15001742571754717</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Code/vehicles.xlsx
+++ b/Code/vehicles.xlsx
@@ -4,79 +4,107 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="6660" windowHeight="5856" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="vehicle_set" sheetId="4" r:id="rId2"/>
     <sheet name="old vehicles" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="working" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$F$27</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">vehicle_set!$B$4</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">working!$B$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$F$27</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$J$29</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">vehicle_set!$B$9</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">working!$B$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">1.5</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">1.5</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>location</t>
   </si>
@@ -273,11 +301,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -402,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +473,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +779,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +847,7 @@
         <v>0.5</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I24" si="1">SQRT(F2*386/E2)/(2*PI())</f>
+        <f>SQRT(F2*386/E2)/(2*PI())</f>
         <v>1.7479894004868133</v>
       </c>
       <c r="K2">
@@ -847,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="2">H3*(2*SQRT(F3*E3/386))*1000</f>
+        <f t="shared" ref="G3:G24" si="1">H3*(2*SQRT(F3*E3/386))*1000</f>
         <v>910.50290721197075</v>
       </c>
       <c r="H3">
@@ -855,7 +886,7 @@
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I24" si="2">SQRT(F3*386/E3)/(2*PI())</f>
         <v>1.7479894004868133</v>
       </c>
       <c r="K3">
@@ -882,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>203.59463942371502</v>
       </c>
       <c r="H4">
@@ -890,7 +921,7 @@
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5634492493750471</v>
       </c>
       <c r="K4">
@@ -917,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>997.40596190805923</v>
       </c>
       <c r="H5">
@@ -925,7 +956,7 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9148264498531189</v>
       </c>
       <c r="K5">
@@ -952,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>997.40596190805923</v>
       </c>
       <c r="H6">
@@ -960,7 +991,7 @@
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9148264498531189</v>
       </c>
       <c r="K6">
@@ -990,7 +1021,7 @@
         <v>2.5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>227.62572680299269</v>
       </c>
       <c r="H7">
@@ -998,7 +1029,7 @@
         <v>0.5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7479894004868133</v>
       </c>
       <c r="K7">
@@ -1028,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1038.13303928441</v>
       </c>
       <c r="H8">
@@ -1036,7 +1067,7 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
       <c r="K8">
@@ -1063,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1038.13303928441</v>
       </c>
       <c r="H9">
@@ -1071,7 +1102,7 @@
         <v>0.5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9930145577688396</v>
       </c>
       <c r="K9">
@@ -1098,7 +1129,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>213.53185926760389</v>
       </c>
       <c r="H10">
@@ -1106,7 +1137,7 @@
         <v>0.5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6397594064095313</v>
       </c>
       <c r="K10">
@@ -1133,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>726.97827293972477</v>
       </c>
       <c r="H11">
@@ -1141,7 +1172,7 @@
         <v>0.5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6271202155461042</v>
       </c>
       <c r="K11">
@@ -1168,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>726.97827293972477</v>
       </c>
       <c r="H12">
@@ -1176,7 +1207,7 @@
         <v>0.5</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6271202155461042</v>
       </c>
       <c r="K12">
@@ -1204,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>419.72110157675928</v>
       </c>
       <c r="H13">
@@ -1212,7 +1243,7 @@
         <v>0.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5167685636390511</v>
       </c>
       <c r="K13">
@@ -1239,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>419.72110157675928</v>
       </c>
       <c r="H14">
@@ -1247,7 +1278,7 @@
         <v>0.5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5167685636390511</v>
       </c>
       <c r="K14">
@@ -1274,7 +1305,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>261.52204951670842</v>
       </c>
       <c r="H15">
@@ -1282,7 +1313,7 @@
         <v>0.5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3388579488774599</v>
       </c>
       <c r="K15">
@@ -1309,14 +1340,14 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>352.63625963054</v>
       </c>
       <c r="H16">
         <v>0.2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
       <c r="K16">
@@ -1343,21 +1374,21 @@
         <v>12</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>352.63625963054</v>
       </c>
       <c r="H17">
         <v>0.2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1663788279784049</v>
       </c>
       <c r="K17">
         <v>1763.1812981527</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1377,21 +1408,21 @@
         <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>315.40745914606094</v>
       </c>
       <c r="H18">
         <v>0.2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4220851621880182</v>
       </c>
       <c r="K18">
         <v>1577.0372957303048</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1411,7 +1442,7 @@
         <v>0.2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
       <c r="H19">
@@ -1419,14 +1450,14 @@
         <v>0.5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
       <c r="K19">
         <v>55.756688299749662</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1446,7 +1477,7 @@
         <v>0.2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27.878344149874831</v>
       </c>
       <c r="H20">
@@ -1454,14 +1485,14 @@
         <v>0.5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1417818951963108</v>
       </c>
       <c r="K20">
         <v>55.756688299749662</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1481,7 +1512,7 @@
         <v>0.4</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
       <c r="H21">
@@ -1489,14 +1520,14 @@
         <v>0.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
       <c r="K21">
         <v>91.050290721197086</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>0.4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.525145360598543</v>
       </c>
       <c r="H22">
@@ -1524,14 +1555,14 @@
         <v>0.5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3983915203894506</v>
       </c>
       <c r="K22">
         <v>91.050290721197086</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1551,7 +1582,7 @@
         <v>0.7</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73.75916558484117</v>
       </c>
       <c r="H23">
@@ -1559,14 +1590,14 @@
         <v>0.5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5104354730827261</v>
       </c>
       <c r="K23">
         <v>147.51833116968234</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1586,7 +1617,7 @@
         <v>0.7</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73.75916558484117</v>
       </c>
       <c r="H24">
@@ -1594,14 +1625,14 @@
         <v>0.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5104354730827261</v>
       </c>
       <c r="K24">
         <v>147.51833116968234</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1639,7 +1670,7 @@
         <v>6.7389654192820869E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1673,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J29">
         <f>J28-I27</f>
         <v>2.9999977687508754</v>
@@ -1689,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,31 +1936,31 @@
         <v>40</v>
       </c>
       <c r="B9" s="8">
-        <f>SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
+        <f t="shared" ref="B9:H9" si="0">SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
         <v>1.5045126646084175</v>
       </c>
       <c r="C9" s="8">
-        <f>SQRT((1/C4+1/C7)^(-1)/C3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>1.9923306144833355</v>
       </c>
       <c r="D9" s="8">
-        <f>SQRT((1/D4+1/D7)^(-1)/D3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>1.9911015741969345</v>
       </c>
       <c r="E9" s="8">
-        <f>SQRT((1/E4+1/E7)^(-1)/E3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>2.9889080288510868</v>
       </c>
       <c r="F9" s="8">
-        <f>SQRT((1/F4+1/F7)^(-1)/F3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>5.9721060657348826</v>
       </c>
       <c r="G9" s="8">
-        <f>SQRT((1/G4+1/G7)^(-1)/G3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>7.9613685723041741</v>
       </c>
       <c r="H9" s="8">
-        <f>SQRT((1/H4+1/H7)^(-1)/H3)/(2*PI())</f>
+        <f t="shared" si="0"/>
         <v>2.9889080288510868</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -1945,27 +1976,27 @@
         <v>0.15867757065373617</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" ref="C10:H10" si="0">C5/(2*(C3)*(C9)*2*PI())</f>
+        <f t="shared" ref="C10:H10" si="1">C5/(2*(C3)*(C9)*2*PI())</f>
         <v>7.9941230425455825E-2</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3835920410799546E-2</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10157159282432794</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1865850661999385E-2</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13868598803957952</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21768987105314505</v>
       </c>
     </row>
@@ -1978,27 +2009,27 @@
         <v>1.4854511746160848</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" ref="C11:H11" si="1">C9*SQRT(1-C10^2)</f>
+        <f t="shared" ref="C11:H11" si="2">C9*SQRT(1-C10^2)</f>
         <v>1.9859543167299338</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9856666694703475</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9734500904736274</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9468523713176049</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8844331374206265</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9172280115708564</v>
       </c>
     </row>
@@ -2011,27 +2042,27 @@
         <v>1.5438876560527968</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:H12" si="2">C9/SQRT(1-2*C10^2)</f>
+        <f t="shared" ref="C12:H12" si="3">C9/SQRT(1-2*C10^2)</f>
         <v>2.0051861672996236</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0020461306856441</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0202295085029047</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0231537966032329</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1190603600185316</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1414846639701053</v>
       </c>
     </row>
@@ -2042,31 +2073,31 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
-        <f>B3*0.00571015</f>
+        <f t="shared" ref="B14:H18" si="4">B3*0.00571015</f>
         <v>114.20299999999999</v>
       </c>
       <c r="C14" s="11">
-        <f>C3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>119.14227975</v>
       </c>
       <c r="D14" s="11">
-        <f>D3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>51.802480799999998</v>
       </c>
       <c r="E14" s="11">
-        <f>E3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>119.14227975</v>
       </c>
       <c r="F14" s="11">
-        <f>F3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>119.14227975</v>
       </c>
       <c r="G14" s="11">
-        <f>G3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>119.14227975</v>
       </c>
       <c r="H14" s="11">
-        <f>H3*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>119.14227975</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -2075,31 +2106,31 @@
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
-        <f>B4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>13704.359999999999</v>
       </c>
       <c r="C15" s="18">
-        <f>C4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>24353.78975</v>
       </c>
       <c r="D15" s="18">
-        <f>D4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>9022.0370000000003</v>
       </c>
       <c r="E15" s="18">
-        <f>E4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>88507.324999999997</v>
       </c>
       <c r="F15" s="18">
-        <f>F4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>288933.58999999997</v>
       </c>
       <c r="G15" s="18">
-        <f>G4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>1170580.75</v>
       </c>
       <c r="H15" s="18">
-        <f>H4*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>88507.324999999997</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2108,31 +2139,31 @@
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
-        <f>B5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>342.60899999999998</v>
       </c>
       <c r="C16" s="11">
-        <f>C5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>238.45586399999999</v>
       </c>
       <c r="D16" s="11">
-        <f>D5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>95.702113999999995</v>
       </c>
       <c r="E16" s="11">
-        <f>E5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>454.52794</v>
       </c>
       <c r="F16" s="11">
-        <f>F5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>821.40507749999995</v>
       </c>
       <c r="G16" s="11">
-        <f>G5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>1653.0884249999999</v>
       </c>
       <c r="H16" s="11">
-        <f>H5*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>974.15158999999994</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -2141,31 +2172,31 @@
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15">
-        <f>B6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>11.420299999999999</v>
       </c>
       <c r="C17" s="15">
-        <f>C6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="D17" s="15">
-        <f>D6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="E17" s="15">
-        <f>E6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="F17" s="15">
-        <f>F6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="G17" s="15">
-        <f>G6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="H17" s="15">
-        <f>H6*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>5.1791060499999997</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2174,31 +2205,31 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
-        <f>B7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>39971.049999999996</v>
       </c>
       <c r="C18" s="14">
-        <f>C7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>80000.115124000004</v>
       </c>
       <c r="D18" s="14">
-        <f>D7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>80000.115124000004</v>
       </c>
       <c r="E18" s="14">
-        <f>E7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>80000.115124000004</v>
       </c>
       <c r="F18" s="14">
-        <f>F7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>400000.00460499997</v>
       </c>
       <c r="G18" s="14">
-        <f>G7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>400000.00460499997</v>
       </c>
       <c r="H18" s="14">
-        <f>H7*0.00571015</f>
+        <f t="shared" si="4"/>
         <v>80000.115124000004</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -2211,27 +2242,27 @@
         <v>1.5045126646084175</v>
       </c>
       <c r="C19" s="13">
-        <f t="shared" ref="C19:H19" si="3">SQRT((1/C15+1/C18)^(-1)/C14)/(2*PI())</f>
+        <f t="shared" ref="C19:H19" si="5">SQRT((1/C15+1/C18)^(-1)/C14)/(2*PI())</f>
         <v>1.9923306144833355</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9911015741969345</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9889080288510872</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9721060657348826</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9613685723041732</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9889080288510872</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -2244,27 +2275,27 @@
         <v>0.13693063937629155</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" ref="C20:H20" si="4">C16/(2*C14*SQRT(C15/C14))</f>
+        <f t="shared" ref="C20:H20" si="6">C16/(2*C14*SQRT(C15/C14))</f>
         <v>6.9994156151325981E-2</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9994506260240688E-2</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9985493355712067E-2</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9999577321035844E-2</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9989428509610083E-2</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14999403475483014</v>
       </c>
       <c r="I20" s="16" t="s">
@@ -2280,27 +2311,27 @@
         <v>1.5335413080000364</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21:H21" si="5">C19/SQRT(1-2*C20^2)</f>
+        <f t="shared" ref="C21:H21" si="7">C19/SQRT(1-2*C20^2)</f>
         <v>2.0021637251503592</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0009287179969917</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0036560504807435</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0015858839260723</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.000656411553809</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0585110370694615</v>
       </c>
     </row>
@@ -2610,12 +2641,12 @@
         <v>2.9664097874780113</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="11">
         <f>B3*0.00571015</f>
         <v>119.14227975</v>
@@ -2648,7 +2679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <f>B4*0.00571015</f>
         <v>10585.516041049999</v>
@@ -2681,7 +2712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="11">
         <f>B5*0.00571015</f>
         <v>157.24040055</v>
@@ -2714,7 +2745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15">
         <f>B6*0.00571015</f>
         <v>5.1791060499999997</v>
@@ -2747,7 +2778,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <f>B7*0.00571015</f>
         <v>80000.115124000004</v>
@@ -2780,7 +2811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13">
         <f>SQRT(B14/B13)/(2*PI())</f>
         <v>1.5001793945143735</v>
@@ -2813,7 +2844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <f>B15/(2*B13*SQRT(B14/B13))</f>
         <v>7.0007597759050244E-2</v>
@@ -2853,6 +2884,514 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9072</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20865</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3</f>
+        <v>20865</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3</f>
+        <v>20865</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4265000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1580000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>15500000</v>
+      </c>
+      <c r="F4" s="17">
+        <v>50600000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>205000000</v>
+      </c>
+      <c r="H4" s="17">
+        <v>15500000</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>60000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41760</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16760</v>
+      </c>
+      <c r="E5" s="5">
+        <v>79600</v>
+      </c>
+      <c r="F5" s="5">
+        <v>143850</v>
+      </c>
+      <c r="G5" s="5">
+        <v>289500</v>
+      </c>
+      <c r="H5" s="5">
+        <v>170600</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>907</v>
+      </c>
+      <c r="D6" s="7">
+        <v>907</v>
+      </c>
+      <c r="E6" s="7">
+        <v>907</v>
+      </c>
+      <c r="F6" s="7">
+        <v>907</v>
+      </c>
+      <c r="G6" s="7">
+        <v>907</v>
+      </c>
+      <c r="H6" s="7">
+        <v>907</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7000000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="E7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="F7" s="7">
+        <v>70050700</v>
+      </c>
+      <c r="G7" s="7">
+        <v>70050700</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14010160</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8000</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8">
+        <f>SQRT((1/B4+1/B7)^(-1)/B3)/(2*PI())</f>
+        <v>1.5045126646084175</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:H9" si="0">SQRT((1/C4+1/C7)^(-1)/C3)/(2*PI())</f>
+        <v>1.9923306144833355</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9911015741969345</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9889080288510868</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>5.9721060657348826</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>7.9613685723041741</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9889080288510868</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B5/(2*(B3)*(B9)*2*PI())</f>
+        <v>0.15867757065373617</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10:H10" si="1">C5/(2*(C3)*(C9)*2*PI())</f>
+        <v>7.9941230425455825E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="1"/>
+        <v>7.3835920410799546E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10157159282432794</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>9.1865850661999385E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13868598803957952</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.21768987105314505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11">
+        <f>B9*SQRT(1-B10^2)</f>
+        <v>1.4854511746160848</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" ref="C11:H11" si="2">C9*SQRT(1-C10^2)</f>
+        <v>1.9859543167299338</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9856666694703475</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9734500904736274</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>5.9468523713176049</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>7.8844331374206265</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9172280115708564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11">
+        <f>B9/SQRT(1-2*B10^2)</f>
+        <v>1.5438876560527968</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12:H12" si="3">C9/SQRT(1-2*C10^2)</f>
+        <v>2.0051861672996236</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="3"/>
+        <v>2.0020461306856441</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.0202295085029047</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="3"/>
+        <v>6.0231537966032329</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="3"/>
+        <v>8.1190603600185316</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1414846639701053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11">
+        <v>200</v>
+      </c>
+      <c r="D14" s="11">
+        <v>200</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11">
+        <v>200</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="20">
+        <f>B14*(2*PI()*B18)^2/(1-B17^2)</f>
+        <v>49846.486874188682</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ref="C15:D15" si="4">C14*(2*PI()*C18)^2/(1-C17^2)</f>
+        <v>161502.61747237132</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="4"/>
+        <v>879292.02846068831</v>
+      </c>
+      <c r="E15" s="20">
+        <f>E14*(2*PI()*E18)^2/(1-E17^2)</f>
+        <v>61747.535001348733</v>
+      </c>
+      <c r="F15" s="20">
+        <v>61902.2</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11">
+        <f>2*SQRT(B15*B14)*B17</f>
+        <v>631.48388339965538</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:D16" si="5">2*SQRT(C15*C14)*C17</f>
+        <v>1136.6709901193797</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="5"/>
+        <v>2652.2323102785522</v>
+      </c>
+      <c r="E16" s="11">
+        <f>2*SQRT(E15*E14)*E17</f>
+        <v>1405.6746138574033</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1407.43</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="10">
+        <f>F16/(2*F14*SQRT(F15/F14))</f>
+        <v>0.19999943483855293</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.74</v>
+      </c>
+      <c r="F18" s="15">
+        <f>SQRT(F15/F14*(1-F17^2))/(2*PI())</f>
+        <v>2.7434297478198051</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" ref="B20:D20" si="6">SQRT(B15/B14)/(2*PI())</f>
+        <v>2.5125945381480306</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>4.5226701686664548</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>10.552897060221726</v>
+      </c>
+      <c r="E20">
+        <f>SQRT(E15/E14)/(2*PI())</f>
+        <v>2.7965007896774616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
